--- a/biology/Histoire de la zoologie et de la botanique/Richard_Leakey/Richard_Leakey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Leakey/Richard_Leakey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Erskine Frere Leakey, né le 19 décembre 1944 à Nairobi et mort le 2 janvier 2022 près de Nairobi, est un paléoanthropologue kenyan[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Erskine Frere Leakey, né le 19 décembre 1944 à Nairobi et mort le 2 janvier 2022 près de Nairobi, est un paléoanthropologue kenyan. 
 Il a travaillé dans la partie orientale de l'Afrique et en particulier au Kenya avant de s'impliquer dans la politique de ce pays.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Leakey est le deuxième des trois fils de Louis et Mary Leakey, tous deux paléontologues et archéologues britanniques nés au Kenya.
 Après avoir dû abandonner ses études, il découvrit son goût pour la paléontologie en menant une expédition sur un site de fossiles qu'il avait trouvé en le survolant. Constatant que ses travaux n'étaient pas pris au sérieux en raison de son manque de diplômes, il partit pour l'Angleterre afin de reprendre ses études universitaires. Après six mois, cependant, il revint chez lui pour recommencer ses safaris et ne fut jamais diplômé.
@@ -521,9 +535,7 @@
 Les ouvrages de R. Leakey comprennent Les origines de l'Homme, Ceux du lac Turkana (tous les deux en collaboration avec Roger Lewin), L'origine illustrée des espèces et La naissance de l'Homme.
 Plus récemment, c'est le côté Ouest du lac Turkana qui a livré les fossiles les plus spectaculaires, notamment le garçon de Turkana, découvert en 1984 par Kamoya Kimeu lors d'une prospection. Ce fossile, inventorié sous le code KNM-WT 15000, est à ce jour le squelette d'Homo ergaster le plus complet que l'on connaisse. Adolescent âgé d'une quinzaine d'années, les paléoanthropologues estiment qu'à l'âge adulte, il aurait dépassé la taille de 1,80 m, révélant qu'il y a près de 2 millions d'années certains de nos ancêtres pouvaient déjà avoir une corpulence semblable à celle des Homo sapiens.  Leakey et Roger Lewin racontent l'histoire de leur découverte dans Réexamen des origines  (1992). Peu de temps après la découverte du Garçon de Turkana, Leakey et son équipe découvrirent un crâne appartenant à une nouvelle espèce, Australopithecus aethiopicus (KNM-WT 17000).
 Richard Leakey a également été le directeur des services de préservation de la vie sauvage du Kenya, rôle dans lequel il a initié les pratiques de destruction de l'ivoire d'éléphant repris aux braconniers, par lesquelles il s'agit d'éviter que les prises faites par les autorités ne reviennent sur le marché de l'ivoire (sans doute par des intermédiaires malhonnêtes) et d'exprimer la volonté publique de ne même pas tirer profit de ces prises (au risque de favoriser le marché noir).
-Richard Leakey meurt le 2 janvier 2022 à l'âge de 77 ans près de Nairobi[2].
-Famille
-Richard Leakey est l'époux de Meave Epps et le père de Louise Leakey, toutes deux paléontologues elles aussi.
+Richard Leakey meurt le 2 janvier 2022 à l'âge de 77 ans près de Nairobi.
 </t>
         </is>
       </c>
@@ -549,10 +561,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Leakey est l'époux de Meave Epps et le père de Louise Leakey, toutes deux paléontologues elles aussi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Richard_Leakey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Leakey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>R. E. Leakey et R. Lewin (1980) Ceux du lac Turkana, Seghers
 R. E. Leakey (1981) La Naissance de l'Homme, Éditions du Fanal
@@ -564,37 +615,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Richard_Leakey</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Richard_Leakey</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Honneurs</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'astéroïde (7958) Leakey a été nommé en l'honneur de Richard Leakey et de ses parents, Louis et Mary Leakey, tous trois figures majeures de la paléoanthropologie de l'Afrique.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -616,10 +636,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astéroïde (7958) Leakey a été nommé en l'honneur de Richard Leakey et de ses parents, Louis et Mary Leakey, tous trois figures majeures de la paléoanthropologie de l'Afrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Richard_Leakey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Leakey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Leaky est mentionné par Ross Geller dans la série de télévision Friends (saison 1, épisode 6), comme ayant avancé une théorie anthropologique nuançant le concept de monogamie.
 </t>
